--- a/CE301_grades/template_supervisor.xlsx
+++ b/CE301_grades/template_supervisor.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Documents/OneDriveBusiness/Education/2015-16/Teaching/CE301/Assessments/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="0" windowWidth="28880" windowHeight="23080" tabRatio="500"/>
+    <workbookView xWindow="4300" yWindow="460" windowWidth="28880" windowHeight="23080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Supervisor Mark Form" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -102,9 +107,6 @@
     <t>Technical quality of verbal responses</t>
   </si>
   <si>
-    <t>CE301 FINAL YEAR PROJECT - SUPERVISOR - MARK FORM 2014-15</t>
-  </si>
-  <si>
     <t>Supervisor (0-100)</t>
   </si>
   <si>
@@ -205,6 +207,9 @@
   </si>
   <si>
     <t>Module Supervisor (0-100)</t>
+  </si>
+  <si>
+    <t>CE301 FINAL YEAR PROJECT - SUPERVISOR - MARK FORM 2015-16</t>
   </si>
 </sst>
 </file>
@@ -774,12 +779,55 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,112 +837,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -940,6 +945,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1271,10 +1281,10 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="14"/>
     <col min="2" max="2" width="45" customWidth="1"/>
@@ -1288,162 +1298,162 @@
     <col min="11" max="11" width="14.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
-      <c r="B1" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="32"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="54"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="53"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="33"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="55"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="33"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16"/>
-      <c r="B9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:11" ht="45" customHeight="1">
-      <c r="A10" s="45" t="s">
-        <v>51</v>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="55"/>
+    </row>
+    <row r="10" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
@@ -1452,18 +1462,18 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="46"/>
+        <v>30</v>
+      </c>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1494,10 +1504,10 @@
         <f>PRODUCT(E11:F11)</f>
         <v>20</v>
       </c>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="46"/>
+      <c r="K11" s="55"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1528,10 +1538,10 @@
         <f t="shared" ref="J12:J13" si="2">PRODUCT(E12:F12)</f>
         <v>50</v>
       </c>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="46"/>
+      <c r="K12" s="55"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1562,10 +1572,10 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="47"/>
+      <c r="K13" s="56"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1591,36 +1601,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
-      <c r="B15" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="45">
-      <c r="A16" s="45" t="s">
-        <v>52</v>
+      <c r="B15" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -1629,20 +1639,20 @@
         <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="46"/>
+        <v>30</v>
+      </c>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3">
         <v>100</v>
@@ -1671,12 +1681,12 @@
         <f>PRODUCT(E17:F17)</f>
         <v>20</v>
       </c>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="46"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3">
         <v>100</v>
@@ -1705,10 +1715,10 @@
         <f t="shared" ref="J18:J20" si="5">PRODUCT(E18:F18)</f>
         <v>30</v>
       </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="46"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1739,10 +1749,10 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="46"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1773,10 +1783,10 @@
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="47"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1802,120 +1812,120 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="B22" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1">
-      <c r="A23" s="45" t="s">
-        <v>50</v>
+      <c r="B22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="C23" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1">
-      <c r="A24" s="46"/>
+        <v>31</v>
+      </c>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
       <c r="B24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="55">
-        <v>100</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+        <v>55</v>
+      </c>
+      <c r="C24" s="20">
+        <v>100</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="2">
         <v>0.4</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54">
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="19">
         <f>C24*F24</f>
         <v>40</v>
       </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="46"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
       <c r="B25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="55">
-        <v>100</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+        <v>56</v>
+      </c>
+      <c r="C25" s="20">
+        <v>100</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="2">
         <v>0.4</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="54">
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="19">
         <f>C25*F25</f>
         <v>40</v>
       </c>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="46"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
       <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="35">
-        <v>100</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
+        <v>57</v>
+      </c>
+      <c r="C26" s="40">
+        <v>100</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="2">
         <v>0.2</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="7">
         <f>C26*F26</f>
         <v>20</v>
       </c>
-      <c r="K26" s="23"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="47"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1924,8 +1934,8 @@
       <c r="G27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="9">
         <f>SUM(J24,J25,J26)</f>
         <v>100</v>
@@ -1935,36 +1945,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
-      <c r="B28" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" ht="45">
-      <c r="A29" s="45" t="s">
-        <v>53</v>
+      <c r="B28" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>4</v>
@@ -1973,18 +1983,18 @@
         <v>5</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="46"/>
+        <v>30</v>
+      </c>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
       <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
@@ -2015,10 +2025,10 @@
         <f>PRODUCT(E30:F30)</f>
         <v>10</v>
       </c>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="46"/>
+      <c r="K30" s="35"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
       <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
@@ -2049,10 +2059,10 @@
         <f t="shared" ref="J31:J32" si="8">PRODUCT(E31:F31)</f>
         <v>10</v>
       </c>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="46"/>
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="24"/>
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
@@ -2083,10 +2093,10 @@
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="K32" s="23"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="47"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2112,72 +2122,72 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
-      <c r="B34" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="1:11" ht="30" customHeight="1">
-      <c r="A35" s="45" t="s">
-        <v>54</v>
+      <c r="B34" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+    </row>
+    <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="C35" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
       <c r="J35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="46"/>
+        <v>59</v>
+      </c>
+      <c r="K35" s="35"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
       <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="35">
-        <v>100</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
+      <c r="C36" s="40">
+        <v>100</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
       <c r="J36" s="5">
         <f>C36*F36</f>
         <v>100</v>
       </c>
-      <c r="K36" s="23"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="47"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2186,8 +2196,8 @@
       <c r="G37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
       <c r="J37" s="9">
         <f>SUM(J36)</f>
         <v>100</v>
@@ -2197,36 +2207,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
-      <c r="B38" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" ht="45">
-      <c r="A39" s="45" t="s">
-        <v>55</v>
+      <c r="B38" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>4</v>
@@ -2235,18 +2245,18 @@
         <v>5</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="46"/>
+        <v>30</v>
+      </c>
+      <c r="K39" s="35"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="24"/>
       <c r="B40" s="2" t="s">
         <v>22</v>
       </c>
@@ -2277,10 +2287,10 @@
         <f>PRODUCT(E40:F40)</f>
         <v>25</v>
       </c>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="46"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="24"/>
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
@@ -2311,10 +2321,10 @@
         <f t="shared" ref="J41:J43" si="11">PRODUCT(E41:F41)</f>
         <v>25</v>
       </c>
-      <c r="K41" s="22"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="46"/>
+      <c r="K41" s="35"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="24"/>
       <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
@@ -2345,10 +2355,10 @@
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="46"/>
+      <c r="K42" s="35"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="24"/>
       <c r="B43" s="2" t="s">
         <v>26</v>
       </c>
@@ -2379,10 +2389,10 @@
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="K43" s="23"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="47"/>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2408,7 +2418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" thickBot="1">
+    <row r="45" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -2419,7 +2429,7 @@
       <c r="H45" s="37"/>
       <c r="I45" s="38"/>
       <c r="J45" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45" s="12">
         <f>SUM(K14+K21+K27+K33+K37+K44)</f>
@@ -2429,32 +2439,6 @@
   </sheetData>
   <sheetProtection password="F68B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K38:K43"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="K28:K32"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B34:J34"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="K15:K20"/>
@@ -2471,15 +2455,36 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C3:G3"/>
+    <mergeCell ref="K38:K43"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="K28:K32"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="H35:I37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B28:J28"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="0.21" bottom="0.41000000000000009" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/CE301_grades/template_supervisor.xlsx
+++ b/CE301_grades/template_supervisor.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Documents/OneDriveBusiness/Education/2015-16/Teaching/CE301/Assessments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/OneDrive - University of Essex/Education/2017-18/CE301/Grading Sheets and Feedback Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="460" windowWidth="28880" windowHeight="23080" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="37560" windowHeight="26820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Supervisor Mark Form" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>Students Name:</t>
   </si>
@@ -65,9 +68,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Report quality</t>
-  </si>
-  <si>
     <t>Work quality</t>
   </si>
   <si>
@@ -179,18 +179,9 @@
     <t>Initial Report (5%)</t>
   </si>
   <si>
-    <t>Interim Report (20%)</t>
-  </si>
-  <si>
-    <t>Final Report (50%)</t>
-  </si>
-  <si>
     <t>Logbook (5%)</t>
   </si>
   <si>
-    <t>PDO (15%)</t>
-  </si>
-  <si>
     <t>Poster Appearance</t>
   </si>
   <si>
@@ -209,7 +200,16 @@
     <t>Module Supervisor (0-100)</t>
   </si>
   <si>
-    <t>CE301 FINAL YEAR PROJECT - SUPERVISOR - MARK FORM 2015-16</t>
+    <t>CE301 FINAL YEAR PROJECT - SUPERVISOR - MARK FORM 2017-18</t>
+  </si>
+  <si>
+    <t>Interim Report (10%)</t>
+  </si>
+  <si>
+    <t>Final Report (55%)</t>
+  </si>
+  <si>
+    <t>PDO (20%)</t>
   </si>
 </sst>
 </file>
@@ -335,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -676,6 +676,15 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -722,17 +731,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -782,6 +784,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -802,6 +811,48 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -825,9 +876,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -862,24 +910,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,6 +929,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1278,15 +1315,15 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="10.83203125" style="12"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
@@ -1294,1176 +1331,1113 @@
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="54"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="51" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="57"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="58"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="55"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="31" t="s">
+      <c r="J6" s="44"/>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="55"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="55"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.2</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <f>C11*F11</f>
-        <v>20</v>
-      </c>
-      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
         <f>D11*F11</f>
-        <v>20</v>
-      </c>
-      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <f>PRODUCT(E11:F11)</f>
-        <v>20</v>
-      </c>
-      <c r="K11" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.5</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <f t="shared" ref="H12:H13" si="0">C12*F12</f>
-        <v>50</v>
-      </c>
-      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" ref="I12:I13" si="1">D12*F12</f>
-        <v>50</v>
-      </c>
-      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <f t="shared" ref="J12:J13" si="2">PRODUCT(E12:F12)</f>
-        <v>50</v>
-      </c>
-      <c r="K12" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.3</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K13" s="56"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="8" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <f>SUM(H11:H13)</f>
-        <v>100</v>
-      </c>
-      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
         <f>SUM(I11:I13)</f>
-        <v>100</v>
-      </c>
-      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
         <f>SUM(J11:J13)</f>
-        <v>100</v>
-      </c>
-      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
         <f>J14*0.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-    </row>
-    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="7">
-        <f>C17*F17</f>
-        <v>20</v>
-      </c>
-      <c r="I17" s="7">
-        <f>D17*F17</f>
-        <v>20</v>
-      </c>
-      <c r="J17" s="7">
-        <f>PRODUCT(E17:F17)</f>
-        <v>20</v>
-      </c>
-      <c r="K17" s="35"/>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="5">
+        <f>PRODUCT(C17:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3">
-        <v>100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="7">
-        <f t="shared" ref="H18:H20" si="3">C18*F18</f>
-        <v>30</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" ref="I18:I20" si="4">D18*F18</f>
-        <v>30</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" ref="J18:J20" si="5">PRODUCT(E18:F18)</f>
-        <v>30</v>
-      </c>
-      <c r="K18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="5">
+        <f>PRODUCT(C18:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3">
-        <v>100</v>
-      </c>
-      <c r="E19" s="3">
-        <v>100</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K19" s="35"/>
+      <c r="C19" s="30">
+        <v>0</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="5">
+        <f>PRODUCT(C19:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3">
-        <v>100</v>
-      </c>
-      <c r="D20" s="3">
-        <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="7">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="K20" s="36"/>
+        <f>SUM(J17:J19)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="8">
-        <f>SUM(H17:H20)</f>
-        <v>100</v>
-      </c>
-      <c r="I21" s="8">
-        <f>SUM(I17:I20)</f>
-        <v>100</v>
-      </c>
-      <c r="J21" s="9">
-        <f>SUM(J17:J20)</f>
-        <v>100</v>
-      </c>
-      <c r="K21" s="11">
-        <f>J21*0.2</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="B21" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="9">
+        <f>J20*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>5</v>
+      </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="34"/>
+      <c r="J22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="46"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="1">
+        <v>0.4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="35"/>
+        <v>14</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="17">
+        <f>C23*F23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
-      <c r="B24" s="2" t="s">
-        <v>55</v>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C24" s="20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0.4</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="19">
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="17">
         <f>C24*F24</f>
-        <v>40</v>
-      </c>
-      <c r="K24" s="35"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="47"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="20">
-        <v>100</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="19">
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="52">
+        <v>0</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="5">
         <f>C25*F25</f>
-        <v>40</v>
-      </c>
-      <c r="K25" s="35"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
-      <c r="B26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="40">
-        <v>100</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="7">
-        <f>C26*F26</f>
-        <v>20</v>
-      </c>
-      <c r="K26" s="36"/>
+        <f>SUM(J23,J24,J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="48"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="9">
-        <f>SUM(J24,J25,J26)</f>
-        <v>100</v>
-      </c>
-      <c r="K27" s="11">
-        <f>J27*0.05</f>
+      <c r="B27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="9">
+        <f>J26*0.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-    </row>
-    <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="H28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="35"/>
+        <v>16</v>
+      </c>
+      <c r="H29" s="5">
+        <f>C29*F29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <f>D29*F29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>PRODUCT(E29:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="3">
-        <v>100</v>
-      </c>
-      <c r="D30" s="3">
-        <v>100</v>
-      </c>
-      <c r="E30" s="3">
-        <v>100</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="7">
-        <f>C30*F30</f>
-        <v>10</v>
-      </c>
-      <c r="I30" s="7">
-        <f>D30*F30</f>
-        <v>10</v>
-      </c>
-      <c r="J30" s="7">
-        <f>PRODUCT(E30:F30)</f>
-        <v>10</v>
-      </c>
-      <c r="K30" s="35"/>
+      <c r="H30" s="5">
+        <f t="shared" ref="H30:H31" si="3">C30*F30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" ref="I30:I31" si="4">D30*F30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" ref="J30:J31" si="5">PRODUCT(E30:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="3">
-        <v>100</v>
-      </c>
-      <c r="D31" s="3">
-        <v>100</v>
-      </c>
-      <c r="E31" s="3">
-        <v>100</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" ref="H31:H32" si="6">C31*F31</f>
-        <v>10</v>
-      </c>
-      <c r="I31" s="7">
-        <f t="shared" ref="I31:I32" si="7">D31*F31</f>
-        <v>10</v>
-      </c>
-      <c r="J31" s="7">
-        <f t="shared" ref="J31:J32" si="8">PRODUCT(E31:F31)</f>
-        <v>10</v>
-      </c>
-      <c r="K31" s="35"/>
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
-      <c r="B32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="3">
-        <v>100</v>
-      </c>
-      <c r="D32" s="3">
-        <v>100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="7">
-        <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="I32" s="7">
-        <f t="shared" si="7"/>
-        <v>80</v>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="6">
+        <f>SUM(H29:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <f>SUM(I29:I31)</f>
+        <v>0</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="K32" s="36"/>
+        <f>SUM(J29:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="8">
-        <f>SUM(H30:H32)</f>
-        <v>100</v>
-      </c>
-      <c r="I33" s="8">
-        <f>SUM(I30:I32)</f>
-        <v>100</v>
-      </c>
-      <c r="J33" s="9">
-        <f>SUM(J30:J32)</f>
-        <v>100</v>
-      </c>
-      <c r="K33" s="11">
-        <f>J33*0.5</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
+      <c r="B33" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="9">
+        <f>J32*0.55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" s="46"/>
     </row>
     <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="C35" s="52">
+        <v>0</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="1">
+        <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="3">
+        <f>C35*F35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="47"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
-      <c r="B36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="40">
-        <v>100</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="5">
-        <f>C36*F36</f>
-        <v>100</v>
-      </c>
-      <c r="K36" s="36"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="7">
+        <f>SUM(J35)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="48"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="9">
-        <f>SUM(J36)</f>
-        <v>100</v>
-      </c>
-      <c r="K37" s="11">
-        <f>J37*0.05</f>
+      <c r="B37" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="9">
+        <f>J36*0.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="34"/>
-    </row>
-    <row r="39" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="H38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="46"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.25</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K39" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="H39" s="5">
+        <f>C39*F39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <f>D39*F39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <f>PRODUCT(E39:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="47"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="19">
+        <v>0</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="3">
-        <v>100</v>
-      </c>
-      <c r="D40" s="3">
-        <v>100</v>
-      </c>
-      <c r="E40" s="3">
-        <v>100</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="7">
-        <f>C40*F40</f>
-        <v>25</v>
-      </c>
-      <c r="I40" s="7">
-        <f>D40*F40</f>
-        <v>25</v>
-      </c>
-      <c r="J40" s="7">
-        <f>PRODUCT(E40:F40)</f>
-        <v>25</v>
-      </c>
-      <c r="K40" s="35"/>
+      <c r="H40" s="5">
+        <f t="shared" ref="H40:H42" si="6">C40*F40</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" ref="I40:I42" si="7">D40*F40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" ref="J40:J42" si="8">PRODUCT(E40:F40)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="47"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="3">
-        <v>100</v>
-      </c>
-      <c r="D41" s="3">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="C41" s="19">
+        <v>0</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
         <v>0.25</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" ref="H41:H43" si="9">C41*F41</f>
-        <v>25</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" ref="I41:I43" si="10">D41*F41</f>
-        <v>25</v>
-      </c>
-      <c r="J41" s="7">
-        <f t="shared" ref="J41:J43" si="11">PRODUCT(E41:F41)</f>
-        <v>25</v>
-      </c>
-      <c r="K41" s="35"/>
+      <c r="G41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="47"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="3">
-        <v>100</v>
-      </c>
-      <c r="D42" s="3">
-        <v>100</v>
-      </c>
-      <c r="E42" s="3">
-        <v>100</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
         <v>0.25</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="7">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="I42" s="7">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="J42" s="7">
-        <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="K42" s="35"/>
+      <c r="G42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="47"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
-      <c r="B43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="3">
-        <v>100</v>
-      </c>
-      <c r="D43" s="3">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="7">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="I43" s="7">
-        <f t="shared" si="10"/>
-        <v>25</v>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="6">
+        <f>SUM(H39:H42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <f>SUM(I39:I42)</f>
+        <v>0</v>
       </c>
       <c r="J43" s="7">
-        <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="K43" s="36"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <f>SUM(J39:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="48"/>
+    </row>
+    <row r="44" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="8">
-        <f>SUM(H40:H43)</f>
-        <v>100</v>
-      </c>
-      <c r="I44" s="8">
-        <f>SUM(I40:I43)</f>
-        <v>100</v>
-      </c>
-      <c r="J44" s="9">
-        <f>SUM(J40:J43)</f>
-        <v>100</v>
-      </c>
-      <c r="K44" s="11">
-        <f>J44*0.15</f>
-        <v>15</v>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" s="9">
+        <f>J43*0.2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K45" s="12">
+      <c r="A45" s="16"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="10">
         <f>SUM(K14+K21+K27+K33+K37+K44)</f>
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="64"/>
     </row>
   </sheetData>
-  <sheetProtection password="F68B" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="K15:K20"/>
     <mergeCell ref="K22:K26"/>
     <mergeCell ref="B9:J9"/>
-    <mergeCell ref="H23:I27"/>
+    <mergeCell ref="H22:I26"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B21:J21"/>
     <mergeCell ref="K1:K13"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="K38:K43"/>
-    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B44:I44"/>
     <mergeCell ref="K28:K32"/>
     <mergeCell ref="K34:K36"/>
-    <mergeCell ref="H35:I37"/>
-    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="H34:I36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B33:J33"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -2472,15 +2446,20 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="H2:H6"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H16:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
